--- a/biology/Botanique/Senna_auriculata/Senna_auriculata.xlsx
+++ b/biology/Botanique/Senna_auriculata/Senna_auriculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senna auriculata est une espèce de plantes à fleurs dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire de l'Asie du Sud et largement introduite en Afrique tropicale.
 C'est un arbuste ou petit arbre, aux branches très ramifiées, pouvant atteindre 7 mètres de haut. Cette plante est utilisée en médecine traditionnelle indienne pour traiter diverses affections. Elle aurait notamment des propriétés antipyrétiques, hépatoprotectrices, antidiabétiques, antiperoxidatives et antihyperglycémiques, ainsi qu'une activité microbicide.
@@ -512,18 +524,20 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Senna auriculata est un arbuste ou petit arbre, très ramifié, aux rameaux pubescents, à feuilles caduques, de 1 à 5 mètres de haut, pouvant atteindre jusqu'à 7,5 mètres[2], avec un tronc de 20 cm de diamètre. L'écorce mince, marron, est lenticellée. 
-Les feuilles, alternes, glabres à pubescentes, sont composées paripennées, avec un rachis de 8,8 à 12,5 cm de long, étroitement sillonné, pubescent, portant une glande linéaire dressée entre chaque paire de folioles. Le pétiole, de 10 à 14 cm de long, présente à sa base des  stipules larges, foliacées, persistantes, réniformes, de 7 à 22 mm de large. Chaque feuille compte de 6 à 13 paires de folioles, se chevauchant légèrement, oblongues à obovales-elliptiques, de 10 à 35 mm de long sur 5 à 12 mm de large, arrondies et mucronées à l’apex[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Senna auriculata est un arbuste ou petit arbre, très ramifié, aux rameaux pubescents, à feuilles caduques, de 1 à 5 mètres de haut, pouvant atteindre jusqu'à 7,5 mètres, avec un tronc de 20 cm de diamètre. L'écorce mince, marron, est lenticellée. 
+Les feuilles, alternes, glabres à pubescentes, sont composées paripennées, avec un rachis de 8,8 à 12,5 cm de long, étroitement sillonné, pubescent, portant une glande linéaire dressée entre chaque paire de folioles. Le pétiole, de 10 à 14 cm de long, présente à sa base des  stipules larges, foliacées, persistantes, réniformes, de 7 à 22 mm de large. Chaque feuille compte de 6 à 13 paires de folioles, se chevauchant légèrement, oblongues à obovales-elliptiques, de 10 à 35 mm de long sur 5 à 12 mm de large, arrondies et mucronées à l’apex,.
 			Port de la plante.
 			Plante fleurie.
 			Feuilles.
-L'inflorescence est formée de grappes corymbiformes, groupant de 2 à 8 fleurs, regroupées en panicules terminales plus ou moins arrondies[2].
+L'inflorescence est formée de grappes corymbiformes, groupant de 2 à 8 fleurs, regroupées en panicules terminales plus ou moins arrondies.
 Les fleurs sont hermaphrodites, irrégulières, pentamères, assez grandes (près de 5 cm de diamètre), portées par un  pédicelle glabre de 2,5 cm de long. Le calice est composé de 5 sépales arrondis au sommet, imbriqués, glabres, concaves, membraneux et inégaux, les deux externes étant beaucoup plus grands que les internes. La corolle comprend 5 pétales, de couleur jaune vif veiné d'orange, libres, inégaux, imbriqués, de 1,5 à 3 cm de long. Les étamines, au nombre de 10, sont libres, les 3 supérieures de plus grande taille sont fertiles, les autres généralement stériles. 
-L'ovaire est supère, uniloculaire, falciforme, d’environ 1,5 cm de long, pédicellé, et porte un style d’environ 1 cm de long[3],[4].
+L'ovaire est supère, uniloculaire, falciforme, d’environ 1,5 cm de long, pédicellé, et porte un style d’environ 1 cm de long,.
 Le fruit est une gousse qui compte de 10 à 20 graines, isolées chacune dans une cavité séparée. Cette gousse, brun clair, brièvement pubescente, indéhiscente, oblongue-linéaire obtuse, aplatie, de 5 à 18 cm de long sur 1 à 2 cm de large, aux valves papyracées, est ondulée transversalement entre les graines.
-Les graines  brun violacé, comprimées, sont ovoïdes-cylindriques, de 7 à 9 mm de long  sur 4 à 5 mm de large, et présentent sur chaque face une aréole distincte de 3 à 3,5 sur 0,5 à 0,75 mm[3],[2],[4].
+Les graines  brun violacé, comprimées, sont ovoïdes-cylindriques, de 7 à 9 mm de long  sur 4 à 5 mm de large, et présentent sur chaque face une aréole distincte de 3 à 3,5 sur 0,5 à 0,75 mm.
 			Inflorescence.
 			Fleur.
 			Fruits immatures.
@@ -556,9 +570,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (27 septembre 2020)[1] 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (27 septembre 2020) 
 Cassia auriculata L.
 Cassia densistipulata Taub.</t>
         </is>
@@ -588,9 +604,11 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur de Senna auriculata, appelée localement « tangedu », a été choisie comme fleur nationale dans l'État du Telangana (Inde), lors de la création de cet État en 2014[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur de Senna auriculata, appelée localement « tangedu », a été choisie comme fleur nationale dans l'État du Telangana (Inde), lors de la création de cet État en 2014.
 </t>
         </is>
       </c>
